--- a/StructureDefinition-profile-MedicationAdministration.xlsx
+++ b/StructureDefinition-profile-MedicationAdministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7303199-06:00</t>
+    <t>2026-02-09T22:05:43.196586-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,6 +449,12 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>MedicationAdministration.extension:occurence</t>
+  </si>
+  <si>
+    <t>occurence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.occurence|0.0.1-snapshot-3}
 </t>
   </si>
@@ -459,10 +465,92 @@
     <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
   </si>
   <si>
+    <t>Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.
+Element `MedicationAdministration.occurence[x]` is mapped to FHIR R4 element `MedicationAdministration.effective[x]`.
+Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>MedicationAdministration.extension:recorded</t>
+  </si>
+  <si>
+    <t>recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.recorded|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.recorded from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.recorded` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:isSubPotent</t>
+  </si>
+  <si>
+    <t>isSubPotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.isSubPotent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.isSubPotent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An indication that the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.isSubPotent` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:subPotentReason</t>
+  </si>
+  <si>
+    <t>subPotentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.subPotentReason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.subPotentReason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The reason or reasons why the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.subPotentReason` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationAdministration.basedOn` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
@@ -573,14 +661,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.partOf|0.0.1-snapshot-3}
-</t>
+    <t>MedicationAdministration.partOf.extension:partOf</t>
+  </si>
+  <si>
+    <t>partOf</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationAdministration.partOf from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>MedicationDispense will be used to indicate waste.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationDispense in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationAdministration.partOf` is mapped to FHIR R4 element `MedicationAdministration.partOf`.</t>
   </si>
   <si>
     <t>MedicationAdministration.partOf.reference</t>
@@ -970,6 +1064,12 @@
     <t>MedicationAdministration.performer.actor.extension</t>
   </si>
   <si>
+    <t>MedicationAdministration.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer.actor|0.0.1-snapshot-3}
 </t>
   </si>
@@ -977,6 +1077,9 @@
     <t>Cross-version extension for MedicationAdministration.performer.actor from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MedicationAdministration.performer.actor` is mapped to FHIR R4 element `MedicationAdministration.performer.actor`.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.actor.reference</t>
   </si>
   <si>
@@ -1091,6 +1194,12 @@
     <t>MedicationAdministration.device.extension</t>
   </si>
   <si>
+    <t>MedicationAdministration.device.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.device|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1099,6 +1208,9 @@
   </si>
   <si>
     <t>The device that is to be used for the administration of the medication (for example, PCA Pump).</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.device` is mapped to FHIR R4 element `MedicationAdministration.device`.</t>
   </si>
   <si>
     <t>MedicationAdministration.device.reference</t>
@@ -1607,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1616,9 +1728,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.91796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1626,7 +1738,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2713,12 +2825,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2739,15 +2853,17 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2805,7 +2921,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2828,46 +2944,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2915,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2924,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2933,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -2947,12 +3063,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2961,7 +3079,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2973,16 +3091,16 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3032,7 +3150,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3041,19 +3159,19 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3067,9 +3185,11 @@
         <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3087,18 +3207,20 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3147,7 +3269,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3156,16 +3278,16 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3179,12 +3301,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3202,18 +3326,20 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3262,7 +3388,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3274,13 +3400,13 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3294,42 +3420,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3377,25 +3507,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3409,10 +3539,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3420,7 +3550,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
@@ -3435,15 +3565,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3480,16 +3612,16 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>178</v>
@@ -3504,16 +3636,16 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3524,10 +3656,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3547,20 +3679,18 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3609,7 +3739,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3621,13 +3751,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3641,10 +3771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3667,17 +3797,15 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3726,25 +3854,25 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3758,10 +3886,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3781,20 +3909,18 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3819,13 +3945,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3843,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3855,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3875,10 +4001,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3889,7 +4015,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3898,20 +4024,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3948,37 +4072,37 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3992,12 +4116,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4015,19 +4141,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4077,25 +4203,25 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4109,10 +4235,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4120,7 +4246,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4129,22 +4255,22 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4170,13 +4296,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4194,31 +4320,31 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4226,10 +4352,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4240,7 +4366,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4249,18 +4375,20 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4285,37 +4413,37 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4324,16 +4452,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4341,10 +4469,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4364,18 +4492,20 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4400,13 +4530,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4424,7 +4554,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4442,7 +4572,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4456,10 +4586,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4467,7 +4597,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4482,16 +4612,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4517,13 +4647,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4541,10 +4671,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4556,16 +4686,16 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4573,10 +4703,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4593,21 +4723,23 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4632,13 +4764,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4656,7 +4788,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4671,16 +4803,16 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -4688,10 +4820,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4702,7 +4834,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4714,13 +4846,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4747,13 +4879,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4771,13 +4903,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -4786,16 +4918,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -4803,10 +4935,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4817,7 +4949,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4829,13 +4961,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4862,13 +4994,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4886,13 +5018,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4904,10 +5036,10 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4918,10 +5050,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4944,15 +5076,17 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4977,13 +5111,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5001,7 +5135,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5044,10 +5178,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5119,10 +5253,10 @@
         <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5174,13 +5308,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5231,7 +5365,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5243,19 +5377,19 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5263,14 +5397,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5289,17 +5423,15 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5348,7 +5480,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5360,16 +5492,16 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5380,46 +5512,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5467,31 +5595,31 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5499,10 +5627,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5513,7 +5641,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5522,16 +5650,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5558,13 +5686,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5582,13 +5710,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5597,16 +5725,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -5614,10 +5742,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5625,7 +5753,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5637,16 +5765,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5697,10 +5825,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>88</v>
@@ -5709,13 +5837,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5729,21 +5857,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5755,15 +5883,17 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5812,25 +5942,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5844,18 +5974,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -5864,22 +5994,26 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5915,19 +6049,19 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5945,7 +6079,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5959,10 +6093,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5970,7 +6104,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5985,13 +6119,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6018,13 +6152,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6042,25 +6176,25 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6074,10 +6208,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6085,7 +6219,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6100,17 +6234,15 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6159,25 +6291,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6191,10 +6323,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6214,20 +6346,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6252,13 +6382,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6276,7 +6406,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6288,13 +6418,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6308,10 +6438,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6319,10 +6449,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6331,20 +6461,18 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6381,37 +6509,37 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6425,18 +6553,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6448,19 +6578,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>205</v>
+        <v>339</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6510,25 +6640,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6542,10 +6672,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6556,7 +6686,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6565,18 +6695,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6601,13 +6733,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6625,31 +6757,31 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6657,10 +6789,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6671,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6680,19 +6812,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6718,13 +6850,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6742,13 +6874,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6757,27 +6889,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6797,19 +6929,19 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6859,7 +6991,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6874,16 +7006,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -6891,10 +7023,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6905,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6914,18 +7046,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6974,13 +7108,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -6992,13 +7126,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7006,10 +7140,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7020,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7032,13 +7166,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7065,13 +7199,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7089,31 +7223,31 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7121,10 +7255,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7132,7 +7266,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7147,15 +7281,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7192,19 +7328,19 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7216,30 +7352,30 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7250,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7262,15 +7398,17 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7319,31 +7457,31 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7351,10 +7489,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7365,7 +7503,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7374,20 +7512,18 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>183</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7436,16 +7572,16 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7454,13 +7590,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7468,10 +7604,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7491,20 +7627,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7529,13 +7663,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7553,7 +7687,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7565,13 +7699,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7585,10 +7719,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7599,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7608,20 +7742,18 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7658,37 +7790,37 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7702,12 +7834,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7716,7 +7850,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7725,19 +7859,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7787,25 +7921,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7819,10 +7953,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7833,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7842,18 +7976,20 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7902,25 +8038,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7934,10 +8070,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7957,18 +8093,20 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7993,13 +8131,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8017,7 +8155,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8029,13 +8167,13 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8049,10 +8187,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8072,18 +8210,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8132,7 +8272,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8144,13 +8284,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8164,21 +8304,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8187,19 +8327,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8249,25 +8389,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8281,14 +8421,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8301,26 +8441,22 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>288</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8368,7 +8504,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8380,13 +8516,13 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8400,10 +8536,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8426,13 +8562,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8483,7 +8619,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8495,13 +8631,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8515,10 +8651,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8541,17 +8677,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8576,13 +8710,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8600,7 +8734,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8612,19 +8746,19 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>376</v>
+        <v>202</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8632,21 +8766,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8658,15 +8792,17 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8691,13 +8827,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8715,31 +8851,31 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>378</v>
+        <v>205</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8747,44 +8883,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8808,13 +8946,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8832,31 +8970,31 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -8864,10 +9002,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8890,17 +9028,15 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8949,7 +9085,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8967,13 +9103,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -8981,10 +9117,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,16 +9143,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>401</v>
+        <v>248</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9042,13 +9178,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9066,7 +9202,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9084,13 +9220,13 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9098,10 +9234,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9112,7 +9248,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9124,17 +9260,15 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9159,13 +9293,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9183,13 +9317,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9201,15 +9335,483 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AO65" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationAdministration.xlsx
+++ b/StructureDefinition-profile-MedicationAdministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.196586-06:00</t>
+    <t>2026-02-17T14:42:26.846041-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.
-Element `MedicationAdministration.occurence[x]` is mapped to FHIR R4 element `MedicationAdministration.effective[x]`.
+Element `MedicationAdministration.occurence[x]` has is mapped to FHIR R4 element `MedicationAdministration.effective[x]`, but has no comparisons.
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.</t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
   </si>
   <si>
-    <t>Element `MedicationAdministration.recorded` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+    <t>Element `MedicationAdministration.recorded` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:isSubPotent</t>
@@ -509,7 +509,7 @@
     <t>An indication that the full dose was not administered.</t>
   </si>
   <si>
-    <t>Element `MedicationAdministration.isSubPotent` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+    <t>Element `MedicationAdministration.isSubPotent` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:subPotentReason</t>
@@ -528,7 +528,7 @@
     <t>The reason or reasons why the full dose was not administered.</t>
   </si>
   <si>
-    <t>Element `MedicationAdministration.subPotentReason` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+    <t>Element `MedicationAdministration.subPotentReason` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:basedOn</t>
@@ -548,7 +548,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationAdministration.basedOn` is will have a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
+Element `MedicationAdministration.basedOn` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -674,7 +674,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationAdministration.partOf` is mapped to FHIR R4 element `MedicationAdministration.partOf`.</t>
+Element `MedicationAdministration.partOf` has is mapped to FHIR R4 element `MedicationAdministration.partOf`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationAdministration.partOf.reference</t>
@@ -995,10 +995,23 @@
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MedicationAdministration.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.performer` has is mapped to FHIR R4 element `MedicationAdministration.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1058,40 +1071,6 @@
     <t>.role</t>
   </si>
   <si>
-    <t>MedicationAdministration.performer.actor.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer.actor|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationAdministration.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationAdministration.performer.actor` is mapped to FHIR R4 element `MedicationAdministration.performer.actor`.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
@@ -1210,7 +1189,7 @@
     <t>The device that is to be used for the administration of the medication (for example, PCA Pump).</t>
   </si>
   <si>
-    <t>Element `MedicationAdministration.device` is mapped to FHIR R4 element `MedicationAdministration.device`.</t>
+    <t>Element `MedicationAdministration.device` has is mapped to FHIR R4 element `MedicationAdministration.device`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationAdministration.device.reference</t>
@@ -1264,6 +1243,22 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.extension:dosage</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.dosage|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.dosage from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.dosage` has is mapped to FHIR R4 element `MedicationAdministration.dosage`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.modifierExtension</t>
@@ -1719,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1728,7 +1723,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.91796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.91796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5864,7 +5859,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5886,14 +5881,12 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5930,16 +5923,14 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>205</v>
@@ -5960,7 +5951,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5974,14 +5965,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5994,26 +5987,24 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6061,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6061,7 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>139</v>
@@ -6079,7 +6070,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6093,33 +6084,33 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>321</v>
@@ -6127,8 +6118,12 @@
       <c r="M38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6152,49 +6147,49 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6219,7 +6214,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6231,16 +6226,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6267,13 +6262,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6291,10 +6286,10 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
@@ -6306,10 +6301,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6323,10 +6318,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6334,7 +6329,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6346,16 +6341,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6406,10 +6401,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
@@ -6418,13 +6413,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6438,10 +6433,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6449,7 +6444,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6464,13 +6459,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6497,31 +6492,31 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6533,19 +6528,19 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6553,23 +6548,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6581,16 +6574,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6640,7 +6633,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6652,30 +6645,30 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6695,19 +6688,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>214</v>
+        <v>358</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6757,7 +6750,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6766,22 +6759,22 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6789,10 +6782,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6803,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6812,20 +6805,18 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6850,13 +6841,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6874,13 +6865,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6892,13 +6883,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6906,10 +6897,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6929,20 +6920,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6991,7 +6980,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7003,13 +6992,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7023,10 +7012,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7037,7 +7026,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7046,20 +7035,18 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7096,37 +7083,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7140,12 +7127,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7166,15 +7155,17 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7199,13 +7190,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7223,7 +7214,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7235,19 +7226,19 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7255,10 +7246,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7269,7 +7260,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7278,19 +7269,19 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>213</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7340,42 +7331,42 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7395,19 +7386,19 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7433,13 +7424,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7457,7 +7448,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7472,16 +7463,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7489,10 +7480,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7503,7 +7494,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7512,18 +7503,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7572,13 +7565,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>229</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7590,13 +7583,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7604,10 +7597,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7627,18 +7620,20 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7687,7 +7682,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7699,13 +7694,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7719,10 +7714,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7745,13 +7740,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>134</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7790,19 +7785,19 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7814,13 +7809,13 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7834,14 +7829,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7850,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7862,17 +7855,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7921,25 +7912,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>205</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7953,10 +7944,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7976,20 +7967,18 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8038,7 +8027,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8047,16 +8036,16 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8070,10 +8059,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8084,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8093,20 +8082,18 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8131,49 +8118,47 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8187,12 +8172,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8210,19 +8197,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8272,25 +8259,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8304,44 +8291,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8389,19 +8378,19 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8421,10 +8410,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8435,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8447,13 +8436,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8504,13 +8493,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8519,10 +8508,10 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8536,10 +8525,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8562,15 +8551,17 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8595,13 +8586,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8619,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8631,19 +8622,19 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>396</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8651,10 +8642,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8677,13 +8668,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8710,13 +8701,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8734,7 +8725,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>201</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8746,19 +8737,19 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>202</v>
+        <v>416</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8766,21 +8757,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8792,16 +8783,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>175</v>
+        <v>421</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8827,13 +8818,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8851,31 +8842,31 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>205</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>202</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -8883,46 +8874,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8970,31 +8959,31 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9002,10 +8991,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9028,15 +9017,17 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9085,7 +9076,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9103,13 +9094,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9117,10 +9108,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9131,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9143,16 +9134,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9178,13 +9169,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9202,13 +9193,13 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
@@ -9220,598 +9211,15 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationAdministration.xlsx
+++ b/StructureDefinition-profile-MedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.846041-06:00</t>
+    <t>2026-02-20T11:59:20.8693114-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>occurence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.occurence|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.occurence}
 </t>
   </si>
   <si>
@@ -480,7 +480,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.recorded|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.recorded}
 </t>
   </si>
   <si>
@@ -499,7 +499,7 @@
     <t>isSubPotent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.isSubPotent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.isSubPotent}
 </t>
   </si>
   <si>
@@ -518,7 +518,7 @@
     <t>subPotentReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.subPotentReason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.subPotentReason}
 </t>
   </si>
   <si>
@@ -537,7 +537,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer}
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.device|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.device}
 </t>
   </si>
   <si>
@@ -1251,7 +1251,7 @@
     <t>dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.dosage|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.dosage}
 </t>
   </si>
   <si>
@@ -1733,7 +1733,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-MedicationAdministration.xlsx
+++ b/StructureDefinition-profile-MedicationAdministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8693114-06:00</t>
+    <t>2026-02-21T13:36:54.2774523-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>occurence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.occurence}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.occurence|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.
-Element `MedicationAdministration.occurence[x]` has is mapped to FHIR R4 element `MedicationAdministration.effective[x]`, but has no comparisons.
+Element `MedicationAdministration.occurence[x]` is mapped to FHIR R4 element `MedicationAdministration.effective[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `MedicationAdministration.effective[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `MedicationAdministration`.</t>
   </si>
   <si>
@@ -480,7 +480,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.recorded}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.recorded|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -499,7 +499,7 @@
     <t>isSubPotent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.isSubPotent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.isSubPotent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -518,7 +518,7 @@
     <t>subPotentReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.subPotentReason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.subPotentReason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -529,26 +529,6 @@
   </si>
   <si>
     <t>Element `MedicationAdministration.subPotentReason` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationAdministration.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationAdministration.basedOn` has a context of MedicationAdministration based on following the parent source element upwards and mapping to `MedicationAdministration`.</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -633,7 +613,239 @@
     <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
   </si>
   <si>
-    <t>MedicationAdministration.partOf.id</t>
+    <t>MedicationAdministration.status</t>
+  </si>
+  <si>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RXA-20-Completion Status</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
+    <t>Type of medication usage</t>
+  </si>
+  <si>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication|4.0.1)</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter or Episode of Care administered as part of</t>
+  </si>
+  <si>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>PV1-19-Visit Number</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Additional information to support administration</t>
+  </si>
+  <si>
+    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.effective[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Start and end time of administration</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed the medication administration and what they did</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration and how they were involved.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>RXA-10-Administering Provider / PRT-5-Participation Person: PRT-4-Participation='AP' (RXA-10 is deprecated)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -652,32 +864,101 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationAdministration.partOf.extension</t>
+    <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.function</t>
+  </si>
+  <si>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in administering the medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF].functionCode</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf.extension:partOf</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationAdministration.partOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationDispense in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationAdministration.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationAdministration.partOf` has is mapped to FHIR R4 element `MedicationAdministration.partOf`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf.reference</t>
+    <t>MedicationAdministration.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer.actor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationAdministration.performer.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationAdministration.performer.actor` is mapped to FHIR R4 element `MedicationAdministration.performer.actor` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -696,7 +977,7 @@
 </t>
   </si>
   <si>
-    <t>MedicationAdministration.partOf.type</t>
+    <t>MedicationAdministration.performer.actor.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -721,7 +1002,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MedicationAdministration.partOf.identifier</t>
+    <t>MedicationAdministration.performer.actor.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -742,7 +1023,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>MedicationAdministration.partOf.display</t>
+    <t>MedicationAdministration.performer.actor.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -755,320 +1036,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Medication|4.0.1)</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter or Episode of Care administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>PV1-19-Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Additional information to support administration</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.effective[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Start and end time of administration</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed the medication administration and what they did</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration and how they were involved.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>RXA-10-Administering Provider / PRT-5-Participation Person: PRT-4-Participation='AP' (RXA-10 is deprecated)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.performer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationAdministration.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
-  </si>
-  <si>
-    <t>Element `MedicationAdministration.performer` has is mapped to FHIR R4 element `MedicationAdministration.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.function</t>
-  </si>
-  <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF].functionCode</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
   </si>
   <si>
     <t>MedicationAdministration.reasonCode</t>
@@ -1179,7 +1146,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.device}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.device|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1189,7 +1156,7 @@
     <t>The device that is to be used for the administration of the medication (for example, PCA Pump).</t>
   </si>
   <si>
-    <t>Element `MedicationAdministration.device` has is mapped to FHIR R4 element `MedicationAdministration.device`, but has no comparisons.</t>
+    <t>Element `MedicationAdministration.device` is mapped to FHIR R4 element `MedicationAdministration.device` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicationAdministration.device.reference</t>
@@ -1243,22 +1210,6 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.extension:dosage</t>
-  </si>
-  <si>
-    <t>dosage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationAdministration.dosage}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationAdministration.dosage from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationAdministration.dosage` has is mapped to FHIR R4 element `MedicationAdministration.dosage`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.modifierExtension</t>
@@ -1714,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1723,7 +1674,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.91796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1733,7 +1684,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3299,13 +3250,11 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3318,24 +3267,26 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3383,7 +3334,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3401,7 +3352,7 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3415,14 +3366,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3435,26 +3386,24 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>176</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3502,7 +3451,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3514,16 +3463,16 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3534,10 +3483,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3557,20 +3506,18 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3619,7 +3566,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3640,7 +3587,7 @@
         <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3651,10 +3598,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3677,7 +3624,7 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>187</v>
@@ -3734,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3777,30 +3724,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3825,13 +3774,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3852,10 +3801,10 @@
         <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
@@ -3864,16 +3813,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3881,10 +3830,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3895,7 +3844,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3907,13 +3856,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3940,13 +3889,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3964,31 +3913,31 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3996,10 +3945,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4010,7 +3959,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4022,13 +3971,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4055,49 +4004,49 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4111,20 +4060,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4136,19 +4083,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4174,13 +4121,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4198,31 +4145,31 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4230,10 +4177,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4241,7 +4188,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4256,17 +4203,15 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4315,31 +4260,31 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4347,10 +4292,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4370,20 +4315,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4408,13 +4351,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4432,7 +4375,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4447,16 +4390,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4464,10 +4407,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4478,7 +4421,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4487,20 +4430,18 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4549,13 +4490,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4567,10 +4508,10 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4581,10 +4522,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4592,7 +4533,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4607,17 +4548,15 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4666,10 +4605,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4681,16 +4620,16 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4698,10 +4637,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4709,32 +4648,30 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4759,13 +4696,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4783,13 +4720,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4798,16 +4735,16 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -4815,10 +4752,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4829,7 +4766,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4841,13 +4778,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4874,13 +4811,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4898,31 +4835,31 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -4930,21 +4867,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4956,15 +4893,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4989,13 +4928,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5013,25 +4952,25 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5045,44 +4984,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5106,13 +5047,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5130,31 +5071,31 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5162,10 +5103,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5173,7 +5114,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5185,16 +5126,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5221,13 +5162,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5245,10 +5186,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -5260,16 +5201,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5277,10 +5218,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5288,7 +5229,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5300,16 +5241,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5360,10 +5301,10 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5375,16 +5316,16 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5392,10 +5333,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5406,7 +5347,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5418,13 +5359,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5475,28 +5416,28 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5521,7 +5462,7 @@
         <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5530,16 +5471,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5578,43 +5519,43 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5622,21 +5563,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5645,18 +5588,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5705,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5717,19 +5662,19 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -5737,10 +5682,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5760,18 +5705,20 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5820,7 +5767,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5829,16 +5776,16 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5852,10 +5799,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5866,7 +5813,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5875,18 +5822,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5911,47 +5860,49 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5965,14 +5916,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5981,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5990,19 +5939,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6052,25 +6001,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6084,46 +6033,44 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6171,19 +6118,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6203,10 +6150,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6217,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6229,13 +6176,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6262,37 +6209,37 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6301,16 +6248,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6318,10 +6265,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6329,10 +6276,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6341,18 +6288,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6401,13 +6350,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6416,27 +6365,27 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6447,7 +6396,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6459,15 +6408,17 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6492,13 +6443,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6516,13 +6467,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6531,16 +6482,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6548,10 +6499,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6574,17 +6525,15 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6633,7 +6582,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6648,27 +6597,27 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6691,17 +6640,15 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6750,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6762,19 +6709,19 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6782,10 +6729,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6808,13 +6755,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6853,19 +6800,19 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6877,19 +6824,19 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6897,12 +6844,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6911,7 +6860,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6923,15 +6872,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6980,25 +6931,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7012,10 +6963,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7026,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7035,18 +6986,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7083,37 +7036,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7127,14 +7080,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7143,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7152,19 +7103,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7190,13 +7141,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7214,25 +7165,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7246,10 +7197,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7272,16 +7223,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7331,7 +7282,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7340,7 +7291,7 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7349,7 +7300,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7363,10 +7314,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7389,16 +7340,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7424,13 +7375,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7448,7 +7399,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7480,10 +7431,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7494,7 +7445,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7503,20 +7454,18 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7565,13 +7514,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>229</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7580,10 +7529,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>230</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7597,10 +7546,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7620,20 +7569,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7682,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7694,13 +7641,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7714,10 +7661,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7728,7 +7675,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7740,13 +7687,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7797,25 +7744,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7829,21 +7776,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7855,15 +7802,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7912,25 +7861,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>271</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7944,42 +7893,46 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8027,25 +7980,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8059,10 +8012,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8073,7 +8026,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8085,13 +8038,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8130,35 +8083,37 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>205</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8172,14 +8127,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8200,16 +8153,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>203</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8235,13 +8188,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8259,31 +8212,31 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>205</v>
+        <v>388</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8291,46 +8244,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8354,13 +8303,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8378,31 +8327,31 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8410,10 +8359,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8436,15 +8385,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8469,13 +8420,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8493,7 +8444,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8511,13 +8462,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8525,10 +8476,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8551,16 +8502,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>248</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8586,13 +8537,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8610,7 +8561,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8628,13 +8579,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8642,10 +8593,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8668,15 +8619,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8701,13 +8654,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8678,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8743,13 +8696,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8757,10 +8710,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8771,7 +8724,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8783,16 +8736,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8818,13 +8771,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8842,13 +8795,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -8860,366 +8813,15 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
